--- a/CS 371/PlanToGrad/Plan to Graduation Spreadsheet.xlsx
+++ b/CS 371/PlanToGrad/Plan to Graduation Spreadsheet.xlsx
@@ -131,7 +131,7 @@
     <t xml:space="preserve">UNIV 110  Personal Learning Skills</t>
   </si>
   <si>
-    <t xml:space="preserve">CS Upper Div (Data Structures)?</t>
+    <t xml:space="preserve">CS 475 Artificial Intelligence 1</t>
   </si>
   <si>
     <t xml:space="preserve">Total Credits</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">CS 488 Intro to Data Mining</t>
   </si>
   <si>
-    <t xml:space="preserve">CS Upper Div (Maybe not good idea but I’ll try)</t>
+    <t xml:space="preserve">CS 372 Data Structures in Algorithms (May take a 400 class depending on job opportunities)</t>
   </si>
   <si>
     <t xml:space="preserve">Semester:    </t>
@@ -347,7 +347,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -410,6 +410,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -495,8 +499,8 @@
   </sheetPr>
   <dimension ref="A1:AMI45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1018,10 +1022,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="16" t="s">
         <v>39</v>
       </c>
       <c r="E28" s="15" t="n">
@@ -1153,13 +1157,13 @@
       <c r="E43" s="15"/>
     </row>
     <row r="45" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
